--- a/com.ebay/src/test/resources/test_data.xlsx
+++ b/com.ebay/src/test/resources/test_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="90" windowWidth="12420" windowHeight="3590"/>
+    <workbookView xWindow="80" yWindow="90" windowWidth="12420" windowHeight="3590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="doSearch" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="doSignIn" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>search terms</t>
   </si>
@@ -49,19 +49,44 @@
   </si>
   <si>
     <t>kitchen aid stand mixeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>toubouachefazia@gmail.com</t>
+  </si>
+  <si>
+    <t>Fazia96@us</t>
+  </si>
+  <si>
+    <t>fazousara96@yahoo.com</t>
+  </si>
+  <si>
+    <t>Fazia@96us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,13 +106,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -450,12 +481,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
